--- a/Json_SPs.xlsx
+++ b/Json_SPs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\CollaberaAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub\csharp_rest_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04152D9-3246-4BEB-8AD2-54C154497497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78359C4-E619-40A8-BCBD-016B9AE6FA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11829" xr2:uid="{7EE6395B-DEF8-4F65-84F6-AAB105E61CEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20952" windowHeight="12456" xr2:uid="{7EE6395B-DEF8-4F65-84F6-AAB105E61CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Json_SPs" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Json</t>
   </si>
   <si>
-    <t>{"searchCriteria": "IBM", "activity_types": ["active", "passive"], "sortColumn": "activity_id", "sortDirection": "asc", "pageNo": 1, "pageSize": 20}</t>
-  </si>
-  <si>
     <t>{"type": "object", "properties": {"pageNo": {"type": "integer", "minimum": 1, "maximum": 150 }, "pageSize": {"type": "integer", "minimum": 1, "maximum": 150 }, { "sortcolumn": { "enum": ["activity_name", "activity_type", "activity_id"] }, "sortdirection": { "enum": ["asc", "desc"] }, "activity_types": {"type": "array", "items": {"type": "string"}}, "searchCriteria": {"type": "string"}}, "additionalProperties": false}</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>AddActivity</t>
+  </si>
+  <si>
+    <t>{"searchCriteria": "meeting", "activity_types": ["active", "passive"], "sortColumn": "activity_id", "sortDirection": "asc", "pageNo": 1, "pageSize": 20}</t>
   </si>
 </sst>
 </file>
@@ -543,21 +543,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CB61E3-1C80-4FAB-8A66-BE9D99A43BA6}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="121.84375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="64.69140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="121.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="64.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="12.9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -574,24 +574,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -602,13 +602,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -619,73 +619,73 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -693,7 +693,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
